--- a/biology/Botanique/Discocactus/Discocactus.xlsx
+++ b/biology/Botanique/Discocactus/Discocactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Discocactus est un genre de plantes à fleurs de la famille des cactus. Il ne faut pas le confondre avec Disocactus qui est un genre différent.
 Le nom du genre vient du grec ancien "diskos" (=disque) en raison de sa forme.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre sont de forme sphérique un peu aplatie. Les aréoles portent de fortes épines.
 Au sommet des sujets adultes, apparaît un cephalium laineux de couleur blanche jaunâtre ou grisâtre. C'est sur les côtés du cephalium qu'apparaissent les fleurs de couleur blanche nocturnes.
@@ -546,7 +560,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Discocactus albispinus
 Discocactus bahiensis
